--- a/biology/Botanique/Violette_blanche/Violette_blanche.xlsx
+++ b/biology/Botanique/Violette_blanche/Violette_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola alba
 La Violette blanche (Viola alba) est une espèce de plantes vivaces de la famille des Violaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse, aux feuilles en rosette, triangulaires à base cordiforme, aux stolons non radicants, aux stipules lancéolés, aux fleurs blanches légèrement ou pas parfumées.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : fleur solitaire latérale blanche
@@ -555,8 +571,8 @@
 Mode de dissémination : myrmécochore
 Habitat et répartition
 Habitat type: ourlets basophiles médioeuropéens, xérophiles, occidentaux
-Aire de répartition: européen méridional[1]
-Viola alba étant une espèce à affinité méditerranéenne, elle est probablement présente dans les régions du Nord ou de l'Est de la France depuis une époque où le climat était plus chaud que l'actuel. Ses stations sont par conséquent relictuelles et des mesures conservatoires devraient être mises en place pour assurer la sauvegarde de ces stations[2].
+Aire de répartition: européen méridional
+Viola alba étant une espèce à affinité méditerranéenne, elle est probablement présente dans les régions du Nord ou de l'Est de la France depuis une époque où le climat était plus chaud que l'actuel. Ses stations sont par conséquent relictuelles et des mesures conservatoires devraient être mises en place pour assurer la sauvegarde de ces stations.
 </t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce protégée en Lorraine.
 Espèce protégée en Ile-de-France (extrêmement rare (RRR), d'après le Conservatoire Botanique National du Bassin Parisien ; Info disponible sur leur site).
@@ -617,15 +635,51 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viola alba subsp. alba
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Viola alba subsp. alba
 Viola alba subsp. dehnhardtii (Ten.) W.Becker:
 Viola alba subsp. scotophylla (Jord.) Nyman:
-Viola alba subsp. sintenisii  (W.Becker) W.Becker
-Composition
-Une étude sur Viola alba subsp. dehnhardtii utilise des extraits de feuilles pour mettre en évidence de nouveaux métabolites biologiquement actifs. Un pool de molécules redox actives, des polyphénols et flavonoïdes C-glycosylés ont été identifiés.
-Cette approche pourrait être appliquée à tout type d'extrait naturel pour l'étude de diverses activités biologiques[3].
+Viola alba subsp. sintenisii  (W.Becker) W.Becker</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Violette_blanche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Violette_blanche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude sur Viola alba subsp. dehnhardtii utilise des extraits de feuilles pour mettre en évidence de nouveaux métabolites biologiquement actifs. Un pool de molécules redox actives, des polyphénols et flavonoïdes C-glycosylés ont été identifiés.
+Cette approche pourrait être appliquée à tout type d'extrait naturel pour l'étude de diverses activités biologiques.
 </t>
         </is>
       </c>
